--- a/src/test/resources/courseData.xlsx
+++ b/src/test/resources/courseData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="48">
   <si>
     <t>Heading of the Course</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>Level Names</t>
+  </si>
+  <si>
+    <t>English (173)</t>
+  </si>
+  <si>
+    <t>Intermediate (75)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Approx. 10 hours to complete</t>
+  </si>
+  <si>
+    <t>IBM Full Stack Software Developer Professional Certificate</t>
+  </si>
+  <si>
+    <t>4 months at 10 hours a week</t>
   </si>
 </sst>
 </file>
@@ -706,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -717,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -771,13 +789,13 @@
         <v>23.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -948,7 +966,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/resources/courseData.xlsx
+++ b/src/test/resources/courseData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="48">
   <si>
     <t>Heading of the Course</t>
   </si>

--- a/src/test/resources/courseData.xlsx
+++ b/src/test/resources/courseData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304066\eclipse-workspace\Push_01\Main Project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA271EC7-043A-4436-AF85-BA9CA6972908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F8ABB-8B11-4A7D-A1CF-4448734C229A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2BDF3F50-A30A-488B-9C34-B403D41C5AA1}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>Heading of the Course</t>
   </si>
@@ -54,124 +53,118 @@
     <t>7 months at 6 hours a week</t>
   </si>
   <si>
+    <t>Chinese (China) (172)</t>
+  </si>
+  <si>
+    <t>Spanish (170)</t>
+  </si>
+  <si>
+    <t>French (159)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (158)</t>
+  </si>
+  <si>
+    <t>Swedish (158)</t>
+  </si>
+  <si>
+    <t>Arabic (157)</t>
+  </si>
+  <si>
+    <t>Dutch (157)</t>
+  </si>
+  <si>
+    <t>German (157)</t>
+  </si>
+  <si>
+    <t>Greek (157)</t>
+  </si>
+  <si>
+    <t>Hindi (157)</t>
+  </si>
+  <si>
+    <t>Indonesian (157)</t>
+  </si>
+  <si>
+    <t>Italian (157)</t>
+  </si>
+  <si>
+    <t>Kazakh (157)</t>
+  </si>
+  <si>
+    <t>Polish (157)</t>
+  </si>
+  <si>
+    <t>Russian (157)</t>
+  </si>
+  <si>
+    <t>Thai (157)</t>
+  </si>
+  <si>
+    <t>Turkish (157)</t>
+  </si>
+  <si>
+    <t>Ukrainian (157)</t>
+  </si>
+  <si>
+    <t>Hungarian (102)</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional) (2)</t>
+  </si>
+  <si>
+    <t>Extract Language Names</t>
+  </si>
+  <si>
+    <t>Extract Language Count</t>
+  </si>
+  <si>
+    <t>Beginner (80)</t>
+  </si>
+  <si>
+    <t>Advanced (7)</t>
+  </si>
+  <si>
+    <t>Mixed (50)</t>
+  </si>
+  <si>
+    <t>Level Count</t>
+  </si>
+  <si>
+    <t>Level Names</t>
+  </si>
+  <si>
+    <t>English (173)</t>
+  </si>
+  <si>
+    <t>Intermediate (75)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Python for Data Science, AI &amp; Development</t>
+  </si>
+  <si>
+    <t>Japanese (159)</t>
+  </si>
+  <si>
+    <t>Korean (159)</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development</t>
+  </si>
+  <si>
+    <t>3 weeks at 3 hours a week</t>
+  </si>
+  <si>
     <t>4.7</t>
   </si>
   <si>
-    <t>Introduction to Web Development</t>
-  </si>
-  <si>
-    <t>Beginner level</t>
-  </si>
-  <si>
-    <t>Chinese (China) (172)</t>
-  </si>
-  <si>
-    <t>English (172)</t>
-  </si>
-  <si>
-    <t>Spanish (170)</t>
-  </si>
-  <si>
-    <t>French (159)</t>
-  </si>
-  <si>
-    <t>Portuguese (Brazil) (158)</t>
-  </si>
-  <si>
-    <t>Swedish (158)</t>
-  </si>
-  <si>
-    <t>Arabic (157)</t>
-  </si>
-  <si>
-    <t>Dutch (157)</t>
-  </si>
-  <si>
-    <t>German (157)</t>
-  </si>
-  <si>
-    <t>Greek (157)</t>
-  </si>
-  <si>
-    <t>Hindi (157)</t>
-  </si>
-  <si>
-    <t>Indonesian (157)</t>
-  </si>
-  <si>
-    <t>Italian (157)</t>
-  </si>
-  <si>
-    <t>Kazakh (157)</t>
-  </si>
-  <si>
-    <t>Polish (157)</t>
-  </si>
-  <si>
-    <t>Russian (157)</t>
-  </si>
-  <si>
-    <t>Thai (157)</t>
-  </si>
-  <si>
-    <t>Turkish (157)</t>
-  </si>
-  <si>
-    <t>Ukrainian (157)</t>
-  </si>
-  <si>
-    <t>Hungarian (102)</t>
-  </si>
-  <si>
-    <t>Japanese (3)</t>
-  </si>
-  <si>
-    <t>Korean (3)</t>
-  </si>
-  <si>
-    <t>Chinese (Traditional) (2)</t>
-  </si>
-  <si>
-    <t>Extract Language Names</t>
-  </si>
-  <si>
-    <t>Extract Language Count</t>
-  </si>
-  <si>
-    <t>Beginner (80)</t>
-  </si>
-  <si>
-    <t>Intermediate (74)</t>
-  </si>
-  <si>
-    <t>Advanced (7)</t>
-  </si>
-  <si>
-    <t>Mixed (50)</t>
-  </si>
-  <si>
-    <t>Level Count</t>
-  </si>
-  <si>
-    <t>Level Names</t>
-  </si>
-  <si>
-    <t>English (173)</t>
-  </si>
-  <si>
-    <t>Intermediate (75)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Approx. 10 hours to complete</t>
-  </si>
-  <si>
-    <t>IBM Full Stack Software Developer Professional Certificate</t>
-  </si>
-  <si>
-    <t>4 months at 10 hours a week</t>
+    <t>26 hours (approximately)</t>
+  </si>
+  <si>
+    <t>4.6</t>
   </si>
 </sst>
 </file>
@@ -245,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -269,21 +262,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -326,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,10 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,27 +327,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,47 +668,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -773,155 +732,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
+      <c r="A1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="12"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="n" s="0">
         <v>23.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" t="s" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" t="s" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" t="s" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" t="s" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" t="s" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" t="s" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" t="s" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" t="s" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" t="s" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" t="s" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" t="s" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" t="s" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" t="s" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s" s="0">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" t="s" s="0">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -944,56 +902,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053464E0-9C22-48ED-8082-5D4C18E855FA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>